--- a/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
+++ b/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Funny-Skirmish-Online\Assets\_iLYuSha Wakaka Setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Funny-Skirmish-Online\Assets\_iLYuSha Wakaka Setting\Wakaka Kocmocraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3929FFBF-A0BF-4905-8DA5-06D2FDD7CA2C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3210B8C6-7A6C-4A7D-9FC5-42A9624EF849}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="112">
   <si>
     <t>巨型宇航机</t>
   </si>
@@ -165,250 +165,291 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>普鲸</t>
+  </si>
+  <si>
+    <t>红牛能量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王牌狗屋</t>
+  </si>
+  <si>
+    <t>卡比之星</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后燃器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>機甲值根據模型實際大小制定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCS為雷達截面積縮寫，採平均截面積分等級</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量值影響護盾充能的速度，同時也是啟動后燃器消耗的必要數值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版本平衡目的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.增加能量的重要性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.增加巡航與后燃器的區別</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.增加武裝的傷害差異性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机甲初始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机甲专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡航专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后燃器专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机甲专精</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机甲初始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机甲总值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机甲总值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>临界值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>✘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6★</t>
+  </si>
+  <si>
+    <t>7★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重型宇航机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型宇航机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型宇航机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型宇航机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安格瑞</t>
+  </si>
+  <si>
+    <t>屎蛋风暴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光武器對於護盾的傷害略高於機甲三倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇航機的基本配點為20點</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武装为六管 降为18点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武装为六管 升为22点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一點都代表一個星級，星级採七等分制</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微型或轻型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻型或中型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>炮弹比尔</t>
-  </si>
-  <si>
-    <t>普鲸</t>
-  </si>
-  <si>
-    <t>红牛能量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王牌狗屋</t>
-  </si>
-  <si>
-    <t>卡比之星</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时光机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后燃器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>機甲值根據模型實際大小制定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RCS為雷達截面積縮寫，採平均截面積分等級</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量值影響護盾充能的速度，同時也是啟動后燃器消耗的必要數值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版本平衡目的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.增加能量的重要性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.增加巡航與后燃器的區別</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.增加武裝的傷害差異性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>配點</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲初始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲专精</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量专精</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>护盾专精</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>巡航专精</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>后燃器专精</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲专精</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲初始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲总值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机甲总值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>临界值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>✘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6★</t>
-  </si>
-  <si>
-    <t>7★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>5★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>重型宇航机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中型宇航机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型宇航机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微型宇航机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安格瑞</t>
-  </si>
-  <si>
-    <t>屎蛋风暴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -416,39 +457,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光武器對於護盾的傷害略高於機甲三倍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>宇航機的基本配點為20點</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武装为六管 降为18点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武装为六管 升为22点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一點都代表一個星級，星级採七等分制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微型或轻型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6★</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻型或中型</t>
+    <t>鹰纽特</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -842,15 +851,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,6 +862,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1193,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D19AF-B56F-48A8-942D-AA4A28475538}">
-  <dimension ref="A2:AQ42"/>
+  <dimension ref="A2:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1255,7 @@
   <sheetData>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>33</v>
@@ -1255,57 +1264,57 @@
         <v>0</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33" t="s">
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="33" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33" t="s">
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
       <c r="AE2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AG2" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AI2" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AI2" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="34"/>
+      <c r="AJ2" s="31"/>
       <c r="AL2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="5">
         <v>13</v>
@@ -1339,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="8">
         <v>16979</v>
@@ -1352,7 +1361,7 @@
         <v>3701</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R3" s="30">
         <f>M3+P3</f>
@@ -1394,19 +1403,19 @@
       <c r="AF3" s="14">
         <v>6</v>
       </c>
-      <c r="AG3" s="35">
+      <c r="AG3" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AH3" s="35">
+      <c r="AH3" s="32">
         <f>(1630*AG3+AA3*5)*(1630*AG3+AA3*5)*AF3*1.3035*0.5*0.000066</f>
         <v>549.97771719431978</v>
       </c>
-      <c r="AI3" s="35">
+      <c r="AI3" s="32">
         <f>(1630*AG3+AD3*5)*(1630*AG3+AD3*5)*AF3*4.1949*0.5*0.000066</f>
         <v>2705.3940412501611</v>
       </c>
-      <c r="AJ3" s="35" t="s">
-        <v>88</v>
+      <c r="AJ3" s="32" t="s">
+        <v>87</v>
       </c>
       <c r="AL3" s="2" t="s">
         <v>20</v>
@@ -1459,7 +1468,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="8">
         <v>16321</v>
@@ -1472,7 +1481,7 @@
         <v>5974</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R4" s="30">
         <f t="shared" ref="R4:R7" si="0">M4+P4</f>
@@ -1514,19 +1523,19 @@
       <c r="AF4" s="14">
         <v>4</v>
       </c>
-      <c r="AG4" s="35">
+      <c r="AG4" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AH4" s="35">
-        <f t="shared" ref="AH4:AH24" si="1">(1630*AG4+AA4*5)*(1630*AG4+AA4*5)*AF4*1.3035*0.5*0.000066</f>
+      <c r="AH4" s="32">
+        <f t="shared" ref="AH4:AH25" si="1">(1630*AG4+AA4*5)*(1630*AG4+AA4*5)*AF4*1.3035*0.5*0.000066</f>
         <v>415.56340736834221</v>
       </c>
-      <c r="AI4" s="35">
-        <f t="shared" ref="AI4:AI24" si="2">(1630*AG4+AD4*5)*(1630*AG4+AD4*5)*AF4*4.1949*0.5*0.000066</f>
+      <c r="AI4" s="32">
+        <f t="shared" ref="AI4:AI25" si="2">(1630*AG4+AD4*5)*(1630*AG4+AD4*5)*AF4*4.1949*0.5*0.000066</f>
         <v>1852.5318965810827</v>
       </c>
-      <c r="AJ4" s="35" t="s">
-        <v>90</v>
+      <c r="AJ4" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="AL4" s="1">
         <v>20</v>
@@ -1573,7 +1582,7 @@
         <v>19000</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>5</v>
@@ -1582,7 +1591,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M5" s="8">
         <v>14724</v>
@@ -1595,7 +1604,7 @@
         <v>4715</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R5" s="30">
         <f t="shared" si="0"/>
@@ -1637,19 +1646,19 @@
       <c r="AF5" s="14">
         <v>6</v>
       </c>
-      <c r="AG5" s="35">
+      <c r="AG5" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AH5" s="35">
+      <c r="AH5" s="32">
         <f t="shared" si="1"/>
         <v>546.21660533321972</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AI5" s="32">
         <f t="shared" si="2"/>
         <v>2413.8950881993615</v>
       </c>
-      <c r="AJ5" s="35" t="s">
-        <v>87</v>
+      <c r="AJ5" s="32" t="s">
+        <v>86</v>
       </c>
       <c r="AL5" s="1">
         <v>20</v>
@@ -1705,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" s="8">
         <v>14287</v>
@@ -1720,7 +1729,7 @@
         <v>6772</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R6" s="30">
         <f t="shared" si="0"/>
@@ -1762,19 +1771,19 @@
       <c r="AF6" s="14">
         <v>4</v>
       </c>
-      <c r="AG6" s="35">
+      <c r="AG6" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AH6" s="35">
+      <c r="AH6" s="32">
         <f t="shared" si="1"/>
         <v>445.49787661214225</v>
       </c>
-      <c r="AI6" s="35">
+      <c r="AI6" s="32">
         <f t="shared" si="2"/>
         <v>1944.8066470861627</v>
       </c>
-      <c r="AJ6" s="35" t="s">
-        <v>90</v>
+      <c r="AJ6" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="AL6" s="1">
         <v>20</v>
@@ -1821,7 +1830,7 @@
         <v>13000</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>3</v>
@@ -1830,7 +1839,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M7" s="8">
         <v>13722</v>
@@ -1843,7 +1852,7 @@
         <v>3927</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R7" s="30">
         <f t="shared" si="0"/>
@@ -1889,19 +1898,19 @@
       <c r="AF7" s="14">
         <v>2</v>
       </c>
-      <c r="AG7" s="35">
+      <c r="AG7" s="32">
         <v>1</v>
       </c>
-      <c r="AH7" s="35">
+      <c r="AH7" s="32">
         <f t="shared" si="1"/>
         <v>271.05141937500002</v>
       </c>
-      <c r="AI7" s="35">
+      <c r="AI7" s="32">
         <f t="shared" si="2"/>
         <v>1370.6468696250001</v>
       </c>
-      <c r="AJ7" s="35" t="s">
-        <v>92</v>
+      <c r="AJ7" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="AL7" s="1">
         <v>20</v>
@@ -1951,60 +1960,60 @@
         <v>33</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33" t="s">
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="36"/>
+      <c r="S8" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33" t="s">
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33" t="s">
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
       <c r="AE8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG8" s="34" t="s">
+      <c r="AG8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH8" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AH8" s="34" t="s">
+      <c r="AI8" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AI8" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ8" s="34"/>
+      <c r="AJ8" s="31"/>
       <c r="AL8" s="1">
         <v>20</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M9" s="17">
         <v>12760</v>
@@ -2072,7 +2081,7 @@
         <v>3566</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R9" s="30">
         <f>M9+P9</f>
@@ -2118,19 +2127,19 @@
       <c r="AF9" s="14">
         <v>2</v>
       </c>
-      <c r="AG9" s="35">
+      <c r="AG9" s="32">
         <v>1</v>
       </c>
-      <c r="AH9" s="35">
+      <c r="AH9" s="32">
         <f t="shared" si="1"/>
         <v>300.84180390000006</v>
       </c>
-      <c r="AI9" s="35">
+      <c r="AI9" s="32">
         <f t="shared" si="2"/>
         <v>1358.3541346649999</v>
       </c>
-      <c r="AJ9" s="35" t="s">
-        <v>92</v>
+      <c r="AJ9" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="AL9" s="1">
         <v>20</v>
@@ -2156,7 +2165,7 @@
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="5">
         <v>17</v>
@@ -2168,7 +2177,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M10" s="17">
         <v>11386</v>
@@ -2183,7 +2192,7 @@
         <v>6922</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R10" s="30">
         <f t="shared" ref="R10:R12" si="7">M10+P10</f>
@@ -2225,19 +2234,19 @@
       <c r="AF10" s="14">
         <v>6</v>
       </c>
-      <c r="AG10" s="35">
+      <c r="AG10" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AH10" s="35">
+      <c r="AH10" s="32">
         <f t="shared" si="1"/>
         <v>491.34848541671977</v>
       </c>
-      <c r="AI10" s="35">
+      <c r="AI10" s="32">
         <f t="shared" si="2"/>
         <v>2586.8010435498418</v>
       </c>
-      <c r="AJ10" s="35" t="s">
-        <v>87</v>
+      <c r="AJ10" s="32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
@@ -2257,7 +2266,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="5">
         <v>14</v>
@@ -2269,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11" s="17">
         <v>10755</v>
@@ -2282,7 +2291,7 @@
         <v>4720</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R11" s="30">
         <f t="shared" si="7"/>
@@ -2326,22 +2335,22 @@
       <c r="AF11" s="14">
         <v>2</v>
       </c>
-      <c r="AG11" s="35">
+      <c r="AG11" s="32">
         <v>1</v>
       </c>
-      <c r="AH11" s="35">
+      <c r="AH11" s="32">
         <f t="shared" si="1"/>
         <v>294.44109750000001</v>
       </c>
-      <c r="AI11" s="35">
+      <c r="AI11" s="32">
         <f t="shared" si="2"/>
         <v>1333.9347827849999</v>
       </c>
-      <c r="AJ11" s="35" t="s">
-        <v>92</v>
+      <c r="AJ11" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
@@ -2376,7 +2385,7 @@
         <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M12" s="17">
         <v>10329</v>
@@ -2389,7 +2398,7 @@
         <v>5522</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R12" s="30">
         <f t="shared" si="7"/>
@@ -2406,17 +2415,17 @@
       </c>
       <c r="V12" s="19"/>
       <c r="W12" s="19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X12" s="19">
-        <v>2707</v>
+        <v>2299</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="AA12" s="4">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB12" s="22" t="s">
         <v>8</v>
@@ -2428,24 +2437,24 @@
         <v>77</v>
       </c>
       <c r="AE12" s="14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF12" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="35">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="35">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AH12" s="32">
         <f t="shared" si="1"/>
-        <v>288.10921590000004</v>
-      </c>
-      <c r="AI12" s="35">
+        <v>418.24170725414223</v>
+      </c>
+      <c r="AI12" s="32">
         <f t="shared" si="2"/>
-        <v>1124.1276982649999</v>
-      </c>
-      <c r="AJ12" s="35" t="s">
-        <v>93</v>
+        <v>1713.450896535403</v>
+      </c>
+      <c r="AJ12" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="AL12" s="2" t="s">
         <v>20</v>
@@ -2492,60 +2501,60 @@
         <v>33</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="33" t="s">
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" s="36"/>
+      <c r="S13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="R13" s="32"/>
-      <c r="S13" s="33" t="s">
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33" t="s">
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="37"/>
       <c r="AE13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG13" s="34" t="s">
+      <c r="AG13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH13" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AH13" s="34" t="s">
+      <c r="AI13" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AI13" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ13" s="34"/>
+      <c r="AJ13" s="31"/>
       <c r="AL13" s="1">
         <v>70</v>
       </c>
@@ -2591,7 +2600,7 @@
         <v>11000</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>34</v>
@@ -2600,7 +2609,7 @@
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="17">
         <v>9327</v>
@@ -2613,7 +2622,7 @@
         <v>3329</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R14" s="30">
         <f>M14+P14</f>
@@ -2659,19 +2668,19 @@
       <c r="AF14" s="14">
         <v>4</v>
       </c>
-      <c r="AG14" s="35">
+      <c r="AG14" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AH14" s="35">
+      <c r="AH14" s="32">
         <f t="shared" si="1"/>
         <v>479.34088904174223</v>
       </c>
-      <c r="AI14" s="35">
+      <c r="AI14" s="32">
         <f t="shared" si="2"/>
         <v>1694.0251636831629</v>
       </c>
-      <c r="AJ14" s="35" t="s">
-        <v>91</v>
+      <c r="AJ14" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="AL14" s="1">
         <v>70</v>
@@ -2718,7 +2727,7 @@
         <v>9000</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>36</v>
@@ -2727,7 +2736,7 @@
         <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M15" s="17">
         <v>8879</v>
@@ -2740,7 +2749,7 @@
         <v>3771</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R15" s="30">
         <f t="shared" ref="R15:R16" si="12">M15+P15</f>
@@ -2786,19 +2795,19 @@
       <c r="AF15" s="14">
         <v>2</v>
       </c>
-      <c r="AG15" s="35">
+      <c r="AG15" s="32">
         <v>1</v>
       </c>
-      <c r="AH15" s="35">
+      <c r="AH15" s="32">
         <f t="shared" si="1"/>
         <v>286.53699937500005</v>
       </c>
-      <c r="AI15" s="35">
+      <c r="AI15" s="32">
         <f t="shared" si="2"/>
         <v>1432.9411346249999</v>
       </c>
-      <c r="AJ15" s="35" t="s">
-        <v>92</v>
+      <c r="AJ15" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="AL15" s="1">
         <v>70</v>
@@ -2845,7 +2854,7 @@
         <v>7000</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>35</v>
@@ -2854,7 +2863,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M16" s="17">
         <v>8325</v>
@@ -2869,7 +2878,7 @@
         <v>7724</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R16" s="30">
         <f t="shared" si="12"/>
@@ -2913,19 +2922,19 @@
       <c r="AF16" s="14">
         <v>2</v>
       </c>
-      <c r="AG16" s="35">
+      <c r="AG16" s="32">
         <v>1</v>
       </c>
-      <c r="AH16" s="35">
+      <c r="AH16" s="32">
         <f t="shared" si="1"/>
         <v>308.93947177500007</v>
       </c>
-      <c r="AI16" s="35">
+      <c r="AI16" s="32">
         <f t="shared" si="2"/>
         <v>1238.472282465</v>
       </c>
-      <c r="AJ16" s="35" t="s">
-        <v>93</v>
+      <c r="AJ16" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="AL16" s="1">
         <v>70</v>
@@ -2975,60 +2984,60 @@
         <v>33</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33" t="s">
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="R17" s="32"/>
-      <c r="S17" s="33" t="s">
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33" t="s">
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
       <c r="AE17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AG17" s="34" t="s">
+      <c r="AG17" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="AH17" s="34" t="s">
+      <c r="AI17" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AI17" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ17" s="34"/>
+      <c r="AJ17" s="31"/>
       <c r="AL17" s="1">
         <v>70</v>
       </c>
@@ -3053,19 +3062,19 @@
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="K18" s="23" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" s="17">
         <v>7346</v>
@@ -3080,7 +3089,7 @@
         <v>7993</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R18" s="30">
         <f>M18+P18</f>
@@ -3124,19 +3133,19 @@
       <c r="AF18" s="14">
         <v>2</v>
       </c>
-      <c r="AG18" s="35">
+      <c r="AG18" s="32">
         <v>1</v>
       </c>
-      <c r="AH18" s="35">
+      <c r="AH18" s="32">
         <f t="shared" si="1"/>
         <v>280.29114877500007</v>
       </c>
-      <c r="AI18" s="35">
+      <c r="AI18" s="32">
         <f t="shared" si="2"/>
         <v>1458.246449385</v>
       </c>
-      <c r="AJ18" s="35" t="s">
-        <v>92</v>
+      <c r="AJ18" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="AL18" s="1">
         <v>70</v>
@@ -3177,19 +3186,19 @@
         <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="23" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M19" s="17">
         <v>6692</v>
@@ -3202,10 +3211,10 @@
         <v>4156</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R19" s="30">
-        <f t="shared" ref="R19:R20" si="13">M19+P19</f>
+        <f t="shared" ref="R19:R21" si="13">M19+P19</f>
         <v>10848</v>
       </c>
       <c r="S19" s="21"/>
@@ -3233,7 +3242,9 @@
       <c r="AA19" s="4">
         <v>23</v>
       </c>
-      <c r="AB19" s="22"/>
+      <c r="AB19" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="AC19" s="22" t="s">
         <v>11</v>
       </c>
@@ -3246,107 +3257,84 @@
       <c r="AF19" s="14">
         <v>6</v>
       </c>
-      <c r="AG19" s="35">
+      <c r="AG19" s="32">
         <v>0.77900000000000003</v>
       </c>
-      <c r="AH19" s="35">
+      <c r="AH19" s="32">
         <f t="shared" si="1"/>
         <v>494.91602752781978</v>
       </c>
-      <c r="AI19" s="35">
+      <c r="AI19" s="32">
         <f t="shared" si="2"/>
         <v>2841.9881711780213</v>
       </c>
-      <c r="AJ19" s="35" t="s">
-        <v>88</v>
+      <c r="AJ19" s="32" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C20" s="1">
-        <f>B20-A20</f>
-        <v>7000</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
-        <f>$C20*6/7</f>
-        <v>6000</v>
-      </c>
-      <c r="F20" s="6">
-        <f>E20+A20</f>
-        <v>7000</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="I20" s="5" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="M20" s="17">
-        <v>5375</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>5987</v>
+      </c>
+      <c r="N20" s="10"/>
       <c r="O20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="9">
+        <v>3156</v>
+      </c>
+      <c r="Q20" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="P20" s="9">
-        <v>2456</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="R20" s="30">
         <f t="shared" si="13"/>
-        <v>7831</v>
+        <v>9143</v>
       </c>
       <c r="S20" s="21"/>
       <c r="T20" s="21" t="s">
         <v>28</v>
       </c>
       <c r="U20" s="21">
-        <v>12934</v>
-      </c>
-      <c r="V20" s="19" t="s">
-        <v>1</v>
-      </c>
+        <v>14500</v>
+      </c>
+      <c r="V20" s="19"/>
       <c r="W20" s="19" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="X20" s="19">
-        <v>3690</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>2444</v>
+      </c>
+      <c r="Y20" s="4"/>
       <c r="Z20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AA20" s="4">
         <v>28</v>
       </c>
-      <c r="AB20" s="22" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="22"/>
       <c r="AC20" s="22" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AD20" s="22">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AE20" s="14">
         <v>20</v>
@@ -3354,22 +3342,19 @@
       <c r="AF20" s="14">
         <v>4</v>
       </c>
-      <c r="AG20" s="35">
+      <c r="AG20" s="32">
         <v>0.84299999999999997</v>
       </c>
-      <c r="AH20" s="35">
-        <f t="shared" si="1"/>
+      <c r="AH20" s="32">
+        <f t="shared" ref="AH20" si="14">(1630*AG20+AA20*5)*(1630*AG20+AA20*5)*AF20*1.3035*0.5*0.000066</f>
         <v>394.44671988194222</v>
       </c>
-      <c r="AI20" s="35">
-        <f t="shared" si="2"/>
-        <v>2092.8026486118429</v>
-      </c>
-      <c r="AJ20" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL20" s="2" t="s">
-        <v>86</v>
+      <c r="AI20" s="32">
+        <f t="shared" ref="AI20" si="15">(1630*AG20+AD20*5)*(1630*AG20+AD20*5)*AF20*4.1949*0.5*0.000066</f>
+        <v>2190.8084714969227</v>
+      </c>
+      <c r="AJ20" s="32" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -3380,95 +3365,107 @@
         <v>8000</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ref="C21:C25" si="14">B21-A21</f>
+        <f>B21-A21</f>
         <v>7000</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1">
+        <f>$C21*6/7</f>
+        <v>6000</v>
+      </c>
+      <c r="F21" s="6">
+        <f>E21+A21</f>
+        <v>7000</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1">
-        <f>$C21*5/7</f>
-        <v>5000</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" ref="F21:F25" si="15">E21+A21</f>
-        <v>6000</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M21" s="32"/>
-      <c r="N21" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="R21" s="32"/>
-      <c r="S21" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG21" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH21" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI21" s="34" t="s">
+      <c r="L21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="17">
+        <v>5375</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2456</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" s="30">
+        <f t="shared" si="13"/>
+        <v>7831</v>
+      </c>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" s="21">
+        <v>12934</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="X21" s="19">
+        <v>3690</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>28</v>
+      </c>
+      <c r="AB21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD21" s="22">
+        <v>114</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>20</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AH21" s="32">
+        <f t="shared" si="1"/>
+        <v>394.44671988194222</v>
+      </c>
+      <c r="AI21" s="32">
+        <f t="shared" si="2"/>
+        <v>2092.8026486118429</v>
+      </c>
+      <c r="AJ21" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL21" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="AJ21" s="34"/>
-      <c r="AL21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3479,123 +3476,95 @@
         <v>8000</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="C22:C26" si="16">B22-A22</f>
         <v>7000</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
-        <f>$C22*4/7</f>
-        <v>4000</v>
+        <f>$C22*5/7</f>
+        <v>5000</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="15"/>
-        <v>5000</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7" t="s">
+        <f t="shared" ref="F22:F26" si="17">E22+A22</f>
+        <v>6000</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="17">
-        <v>4793</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="9">
-        <v>6522</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="R22" s="30">
-        <f>M22+P22</f>
-        <v>11315</v>
-      </c>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" s="21">
-        <v>14859</v>
-      </c>
-      <c r="V22" s="19"/>
-      <c r="W22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" s="19">
-        <v>2237</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>54</v>
-      </c>
-      <c r="AB22" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC22" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD22" s="22">
-        <v>85</v>
-      </c>
-      <c r="AE22" s="14">
+      <c r="R22" s="36"/>
+      <c r="S22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z22" s="37"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG22" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH22" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ22" s="31"/>
+      <c r="AL22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF22" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG22" s="35">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="35">
-        <f t="shared" si="1"/>
-        <v>310.57191</v>
-      </c>
-      <c r="AI22" s="35">
-        <f t="shared" si="2"/>
-        <v>1169.2010597849999</v>
-      </c>
-      <c r="AJ22" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL22" s="1">
-        <v>1092</v>
-      </c>
-      <c r="AM22" s="1">
-        <v>2842</v>
-      </c>
-      <c r="AN22" s="1">
-        <f>AM22-AL22</f>
-        <v>1750</v>
-      </c>
-      <c r="AO22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP22" s="1">
-        <f>$AN22*6/7</f>
-        <v>1500</v>
-      </c>
-      <c r="AQ22" s="6">
-        <f>AP22+AL22</f>
-        <v>2592</v>
+      <c r="AO22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -3606,100 +3575,102 @@
         <v>8000</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7000</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1">
-        <f>$C23*3/7</f>
-        <v>3000</v>
+        <f>$C23*4/7</f>
+        <v>4000</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="15"/>
-        <v>4000</v>
+        <f t="shared" si="17"/>
+        <v>5000</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>47</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K23" s="23" t="s">
         <v>10</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M23" s="17">
-        <v>4327</v>
-      </c>
-      <c r="N23" s="10"/>
+        <v>4793</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="O23" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P23" s="9">
-        <v>3149</v>
+        <v>6522</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R23" s="30">
-        <f t="shared" ref="R23:R27" si="16">M23+P23</f>
-        <v>7476</v>
+        <f>M23+P23</f>
+        <v>11315</v>
       </c>
       <c r="S23" s="21"/>
       <c r="T23" s="21" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="U23" s="21">
-        <v>10721</v>
-      </c>
-      <c r="V23" s="19" t="s">
-        <v>8</v>
-      </c>
+        <v>14859</v>
+      </c>
+      <c r="V23" s="19"/>
       <c r="W23" s="19" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="X23" s="19">
-        <v>888</v>
+        <v>2237</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA23" s="4">
-        <v>60</v>
-      </c>
-      <c r="AB23" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="AB23" s="22" t="s">
+        <v>8</v>
+      </c>
       <c r="AC23" s="22" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AD23" s="22">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AE23" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF23" s="14">
-        <v>4</v>
-      </c>
-      <c r="AG23" s="35">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="AH23" s="35">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="32">
         <f t="shared" si="1"/>
-        <v>482.21706022754222</v>
-      </c>
-      <c r="AI23" s="35">
+        <v>310.57191</v>
+      </c>
+      <c r="AI23" s="32">
         <f t="shared" si="2"/>
-        <v>2157.8906868085628</v>
-      </c>
-      <c r="AJ23" s="35" t="s">
-        <v>89</v>
+        <v>1169.2010597849999</v>
+      </c>
+      <c r="AJ23" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="AL23" s="1">
         <v>1092</v>
@@ -3708,19 +3679,19 @@
         <v>2842</v>
       </c>
       <c r="AN23" s="1">
-        <f t="shared" ref="AN23:AN27" si="17">AM23-AL23</f>
+        <f>AM23-AL23</f>
         <v>1750</v>
       </c>
       <c r="AO23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP23" s="1">
-        <f>$AN23*5/7</f>
-        <v>1250</v>
+        <f>$AN23*6/7</f>
+        <v>1500</v>
       </c>
       <c r="AQ23" s="6">
-        <f t="shared" ref="AQ23:AQ27" si="18">AP23+AL23</f>
-        <v>2342</v>
+        <f>AP23+AL23</f>
+        <v>2592</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -3731,104 +3702,100 @@
         <v>8000</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7000</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1">
-        <f>$C24*2/7</f>
-        <v>2000</v>
+        <f>$C24*3/7</f>
+        <v>3000</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="15"/>
-        <v>3000</v>
+        <f t="shared" si="17"/>
+        <v>4000</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24" s="23" t="s">
         <v>10</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" s="17">
-        <v>3971</v>
-      </c>
-      <c r="N24" s="9" t="s">
+        <v>4327</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P24" s="9">
+        <v>3149</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" s="30">
+        <f t="shared" ref="R24:R28" si="18">M24+P24</f>
+        <v>7476</v>
+      </c>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="21">
+        <v>10721</v>
+      </c>
+      <c r="V24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="9" t="s">
+      <c r="W24" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P24" s="9">
-        <v>1379</v>
-      </c>
-      <c r="Q24" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R24" s="30">
-        <f t="shared" si="16"/>
-        <v>5350</v>
-      </c>
-      <c r="S24" s="21" t="s">
+      <c r="X24" s="19">
+        <v>888</v>
+      </c>
+      <c r="Y24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T24" s="21" t="s">
+      <c r="Z24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U24" s="21">
-        <v>23740</v>
-      </c>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="X24" s="19">
-        <v>2773</v>
-      </c>
-      <c r="Y24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z24" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="AA24" s="4">
-        <v>27</v>
-      </c>
-      <c r="AB24" s="22" t="s">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AB24" s="22"/>
       <c r="AC24" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD24" s="22">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AE24" s="14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF24" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG24" s="35">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="35">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AH24" s="32">
         <f t="shared" si="1"/>
-        <v>268.00592197500004</v>
-      </c>
-      <c r="AI24" s="35">
+        <v>482.21706022754222</v>
+      </c>
+      <c r="AI24" s="32">
         <f t="shared" si="2"/>
-        <v>1420.371536265</v>
-      </c>
-      <c r="AJ24" s="35" t="s">
-        <v>92</v>
+        <v>2157.8906868085628</v>
+      </c>
+      <c r="AJ24" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="AL24" s="1">
         <v>1092</v>
@@ -3837,19 +3804,19 @@
         <v>2842</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="AN24:AN28" si="19">AM24-AL24</f>
         <v>1750</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP24" s="1">
-        <f>$AN24*4/7</f>
-        <v>1000</v>
+        <f>$AN24*5/7</f>
+        <v>1250</v>
       </c>
       <c r="AQ24" s="6">
-        <f t="shared" si="18"/>
-        <v>2092</v>
+        <f t="shared" ref="AQ24:AQ28" si="20">AP24+AL24</f>
+        <v>2342</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -3860,48 +3827,105 @@
         <v>8000</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7000</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1">
-        <f>$C25*1/7</f>
-        <v>1000</v>
+        <f>$C25*2/7</f>
+        <v>2000</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="15"/>
-        <v>2000</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
-      <c r="AJ25" s="36"/>
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M25" s="17">
+        <v>3971</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="9">
+        <v>1379</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R25" s="30">
+        <f t="shared" si="18"/>
+        <v>5350</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="U25" s="21">
+        <v>23740</v>
+      </c>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X25" s="19">
+        <v>2773</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="22">
+        <v>127</v>
+      </c>
+      <c r="AE25" s="14">
+        <v>22</v>
+      </c>
+      <c r="AF25" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="32">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="32">
+        <f t="shared" si="1"/>
+        <v>268.00592197500004</v>
+      </c>
+      <c r="AI25" s="32">
+        <f t="shared" si="2"/>
+        <v>1420.371536265</v>
+      </c>
+      <c r="AJ25" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="AL25" s="1">
         <v>1092</v>
       </c>
@@ -3909,102 +3933,71 @@
         <v>2842</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1750</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP25" s="1">
-        <f>$AN25*3/7</f>
-        <v>750</v>
+        <f>$AN25*4/7</f>
+        <v>1000</v>
       </c>
       <c r="AQ25" s="6">
-        <f t="shared" si="18"/>
-        <v>1842</v>
+        <f t="shared" si="20"/>
+        <v>2092</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>109</v>
-      </c>
+      <c r="A26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="16"/>
+        <v>7000</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <f>$C26*1/7</f>
+        <v>1000</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="17"/>
+        <v>2000</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="17">
-        <v>8100</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="P26" s="10">
-        <v>1975</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="30">
-        <f t="shared" si="16"/>
-        <v>10075</v>
-      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="30"/>
       <c r="S26" s="21"/>
-      <c r="T26" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="U26" s="21">
-        <v>15052</v>
-      </c>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="X26" s="19">
-        <v>2174</v>
-      </c>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA26" s="4">
-        <v>45</v>
-      </c>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
       <c r="AB26" s="22"/>
-      <c r="AC26" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD26" s="22">
-        <v>95</v>
-      </c>
-      <c r="AE26" s="14">
-        <v>18</v>
-      </c>
-      <c r="AF26" s="14">
-        <v>6</v>
-      </c>
-      <c r="AG26" s="35">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="AH26" s="35">
-        <f t="shared" ref="AH25:AH27" si="19">(1630*AG26+AA26*5)*(1630*AG26+AA26*5)*AF26*1.3035*0.5*0.000066</f>
-        <v>576.66683042201976</v>
-      </c>
-      <c r="AI26" s="35">
-        <f t="shared" ref="AI25:AI27" si="20">(1630*AG26+AD26*5)*(1630*AG26+AD26*5)*AF26*4.1949*0.5*0.000066</f>
-        <v>2528.5012529396813</v>
-      </c>
-      <c r="AJ26" s="35" t="s">
-        <v>87</v>
-      </c>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="33"/>
       <c r="AL26" s="1">
         <v>1092</v>
       </c>
@@ -4012,165 +4005,242 @@
         <v>2842</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1750</v>
       </c>
       <c r="AO26" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP26" s="1">
-        <f>$AN26*2/7</f>
-        <v>500</v>
+        <f>$AN26*3/7</f>
+        <v>750</v>
       </c>
       <c r="AQ26" s="6">
-        <f t="shared" si="18"/>
-        <v>1592</v>
+        <f t="shared" si="20"/>
+        <v>1842</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J27" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="37" t="s">
-        <v>107</v>
+      <c r="K27" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="17">
-        <v>4500</v>
-      </c>
-      <c r="N27" s="10"/>
+        <v>8100</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="O27" s="10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P27" s="10">
-        <v>5224</v>
+        <v>1975</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="R27" s="30">
-        <f t="shared" si="16"/>
-        <v>9724</v>
-      </c>
-      <c r="S27" s="21" t="s">
-        <v>8</v>
-      </c>
+        <f t="shared" si="18"/>
+        <v>10075</v>
+      </c>
+      <c r="S27" s="21"/>
       <c r="T27" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="U27" s="21">
-        <v>8856</v>
-      </c>
-      <c r="V27" s="19" t="s">
-        <v>1</v>
-      </c>
+        <v>15052</v>
+      </c>
+      <c r="V27" s="19"/>
       <c r="W27" s="19" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="X27" s="19">
-        <v>2990</v>
+        <v>2174</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AA27" s="4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AB27" s="22"/>
       <c r="AC27" s="22" t="s">
         <v>90</v>
       </c>
       <c r="AD27" s="22">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AE27" s="14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF27" s="14">
-        <v>4</v>
-      </c>
-      <c r="AG27" s="35">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="AH27" s="35">
+        <v>6</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AH27" s="32">
+        <f t="shared" ref="AH27:AH28" si="21">(1630*AG27+AA27*5)*(1630*AG27+AA27*5)*AF27*1.3035*0.5*0.000066</f>
+        <v>576.66683042201976</v>
+      </c>
+      <c r="AI27" s="32">
+        <f t="shared" ref="AI27:AI28" si="22">(1630*AG27+AD27*5)*(1630*AG27+AD27*5)*AF27*4.1949*0.5*0.000066</f>
+        <v>2528.5012529396813</v>
+      </c>
+      <c r="AJ27" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>1092</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>2842</v>
+      </c>
+      <c r="AN27" s="1">
         <f t="shared" si="19"/>
-        <v>410.23261689674223</v>
-      </c>
-      <c r="AI27" s="35">
+        <v>1750</v>
+      </c>
+      <c r="AO27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP27" s="1">
+        <f>$AN27*2/7</f>
+        <v>500</v>
+      </c>
+      <c r="AQ27" s="6">
         <f t="shared" si="20"/>
-        <v>1965.6166969384028</v>
-      </c>
-      <c r="AJ27" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>1080</v>
-      </c>
-      <c r="AM27" s="1">
-        <v>2830</v>
-      </c>
-      <c r="AN27" s="1">
-        <f t="shared" si="17"/>
-        <v>1750</v>
-      </c>
-      <c r="AO27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP27" s="1">
-        <f>$AN27*1/7</f>
-        <v>250</v>
-      </c>
-      <c r="AQ27" s="6">
-        <f t="shared" si="18"/>
-        <v>1330</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="B28" s="1">
-        <v>24000</v>
-      </c>
-      <c r="C28" s="1">
-        <f>B28-A28</f>
-        <v>21000</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="1">
-        <f>$C28*6/7</f>
-        <v>18000</v>
-      </c>
-      <c r="F28" s="6">
-        <f>E28+A28</f>
-        <v>21000</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>57</v>
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="17">
+        <v>4500</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" s="10">
+        <v>5224</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R28" s="30">
+        <f t="shared" si="18"/>
+        <v>9724</v>
+      </c>
+      <c r="S28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="U28" s="21">
+        <v>8856</v>
+      </c>
+      <c r="V28" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W28" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="X28" s="19">
+        <v>2990</v>
+      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>34</v>
+      </c>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD28" s="22">
+        <v>102</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>20</v>
+      </c>
+      <c r="AF28" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AH28" s="32">
+        <f t="shared" si="21"/>
+        <v>410.23261689674223</v>
+      </c>
+      <c r="AI28" s="32">
+        <f t="shared" si="22"/>
+        <v>1965.6166969384028</v>
+      </c>
+      <c r="AJ28" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>1080</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>2830</v>
+      </c>
+      <c r="AN28" s="1">
+        <f t="shared" si="19"/>
+        <v>1750</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP28" s="1">
+        <f>$AN28*1/7</f>
+        <v>250</v>
+      </c>
+      <c r="AQ28" s="6">
+        <f t="shared" si="20"/>
+        <v>1330</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
@@ -4181,19 +4251,19 @@
         <v>24000</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29:C33" si="21">B29-A29</f>
+        <f>B29-A29</f>
         <v>21000</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" s="1">
-        <f>$C29*5/7</f>
-        <v>15000</v>
+        <f>$C29*6/7</f>
+        <v>18000</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" ref="F29:F33" si="22">E29+A29</f>
-        <v>18000</v>
+        <f>E29+A29</f>
+        <v>21000</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>56</v>
@@ -4207,22 +4277,22 @@
         <v>24000</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="C30:C34" si="23">B30-A30</f>
         <v>21000</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E30" s="1">
-        <f>$C30*4/7</f>
-        <v>12000</v>
+        <f>$C30*5/7</f>
+        <v>15000</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="22"/>
-        <v>15000</v>
+        <f t="shared" ref="F30:F34" si="24">E30+A30</f>
+        <v>18000</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -4233,22 +4303,22 @@
         <v>24000</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>21000</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1">
-        <f>$C31*3/7</f>
-        <v>9000</v>
+        <f>$C31*4/7</f>
+        <v>12000</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="22"/>
-        <v>12000</v>
+        <f t="shared" si="24"/>
+        <v>15000</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -4259,19 +4329,22 @@
         <v>24000</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>21000</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1">
-        <f>$C32*2/7</f>
-        <v>6000</v>
+        <f>$C32*3/7</f>
+        <v>9000</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="22"/>
-        <v>9000</v>
+        <f t="shared" si="24"/>
+        <v>12000</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4282,79 +4355,76 @@
         <v>24000</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>21000</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1">
-        <f>$C33*1/7</f>
-        <v>3000</v>
+        <f>$C33*2/7</f>
+        <v>6000</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="22"/>
-        <v>6000</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>59</v>
+        <f t="shared" si="24"/>
+        <v>9000</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>26</v>
+      <c r="A34" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B34" s="1">
+        <v>24000</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="23"/>
+        <v>21000</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1">
+        <f>$C34*1/7</f>
+        <v>3000</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="24"/>
+        <v>6000</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>500</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3700</v>
-      </c>
-      <c r="C36" s="1">
-        <f>B36-A36</f>
-        <v>3200</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="1">
-        <f>$C36*6/7</f>
-        <v>2742.8571428571427</v>
-      </c>
-      <c r="F36" s="6">
-        <f>E36+A36</f>
-        <v>3242.8571428571427</v>
+      <c r="A36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4365,19 +4435,22 @@
         <v>3700</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:C41" si="23">B37-A37</f>
+        <f>B37-A37</f>
         <v>3200</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" s="1">
-        <f>$C37*5/7</f>
-        <v>2285.7142857142858</v>
+        <f>$C37*6/7</f>
+        <v>2742.8571428571427</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" ref="F37:F41" si="24">E37+A37</f>
-        <v>2785.7142857142858</v>
+        <f>E37+A37</f>
+        <v>3242.8571428571427</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4388,19 +4461,19 @@
         <v>3700</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="C38:C42" si="25">B38-A38</f>
         <v>3200</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E38" s="1">
-        <f>$C38*4/7</f>
-        <v>1828.5714285714287</v>
+        <f>$C38*5/7</f>
+        <v>2285.7142857142858</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="24"/>
-        <v>2328.5714285714284</v>
+        <f t="shared" ref="F38:F42" si="26">E38+A38</f>
+        <v>2785.7142857142858</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4411,22 +4484,19 @@
         <v>3700</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3200</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1">
-        <f>$C39*3/7</f>
-        <v>1371.4285714285713</v>
+        <f>$C39*4/7</f>
+        <v>1828.5714285714287</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="24"/>
-        <v>1871.4285714285713</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>103</v>
+        <f t="shared" si="26"/>
+        <v>2328.5714285714284</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4437,22 +4507,22 @@
         <v>3700</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3200</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1">
-        <f>$C40*2/7</f>
-        <v>914.28571428571433</v>
+        <f>$C40*3/7</f>
+        <v>1371.4285714285713</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="24"/>
-        <v>1414.2857142857142</v>
+        <f t="shared" si="26"/>
+        <v>1871.4285714285713</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4463,35 +4533,61 @@
         <v>3700</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3200</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1">
-        <f>$C41*1/7</f>
-        <v>457.14285714285717</v>
+        <f>$C41*2/7</f>
+        <v>914.28571428571433</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="24"/>
-        <v>957.14285714285711</v>
+        <f t="shared" si="26"/>
+        <v>1414.2857142857142</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>500</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3700</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="25"/>
+        <v>3200</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1">
+        <f>$C42*1/7</f>
+        <v>457.14285714285717</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="26"/>
+        <v>957.14285714285711</v>
+      </c>
       <c r="I42" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
     <mergeCell ref="S17:U17"/>
     <mergeCell ref="V17:X17"/>
     <mergeCell ref="Y17:AA17"/>
@@ -4513,16 +4609,16 @@
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="N22:P22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
+++ b/Assets/_iLYuSha Wakaka Setting/Wakaka Kocmocraft/Balance Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Funny-Skirmish-Online\Assets\_iLYuSha Wakaka Setting\Wakaka Kocmocraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3210B8C6-7A6C-4A7D-9FC5-42A9624EF849}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B4B48B-499C-4641-805B-C322DE06A04D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765" xr2:uid="{31C724A4-68AD-44B9-AAD0-D887B58A3456}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="115">
   <si>
     <t>巨型宇航机</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>鹰纽特</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4★</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新葡鲸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1202,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909D19AF-B56F-48A8-942D-AA4A28475538}">
-  <dimension ref="A2:AQ43"/>
+  <dimension ref="A2:AQ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1527,11 +1539,11 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="AH4" s="32">
-        <f t="shared" ref="AH4:AH25" si="1">(1630*AG4+AA4*5)*(1630*AG4+AA4*5)*AF4*1.3035*0.5*0.000066</f>
+        <f t="shared" ref="AH4:AH26" si="1">(1630*AG4+AA4*5)*(1630*AG4+AA4*5)*AF4*1.3035*0.5*0.000066</f>
         <v>415.56340736834221</v>
       </c>
       <c r="AI4" s="32">
-        <f t="shared" ref="AI4:AI25" si="2">(1630*AG4+AD4*5)*(1630*AG4+AD4*5)*AF4*4.1949*0.5*0.000066</f>
+        <f t="shared" ref="AI4:AI26" si="2">(1630*AG4+AD4*5)*(1630*AG4+AD4*5)*AF4*4.1949*0.5*0.000066</f>
         <v>1852.5318965810827</v>
       </c>
       <c r="AJ4" s="32" t="s">
@@ -1567,7 +1579,7 @@
         <v>25000</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C9" si="3">B5-A5</f>
+        <f t="shared" ref="C5:C10" si="3">B5-A5</f>
         <v>21000</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1578,7 +1590,7 @@
         <v>15000</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F9" si="4">E5+A5</f>
+        <f t="shared" ref="F5:F10" si="4">E5+A5</f>
         <v>19000</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1667,7 +1679,7 @@
         <v>60</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" ref="AN5:AN9" si="5">AM5-AL5</f>
+        <f t="shared" ref="AN5:AN10" si="5">AM5-AL5</f>
         <v>40</v>
       </c>
       <c r="AO5" s="3" t="s">
@@ -1678,7 +1690,7 @@
         <v>28.571428571428573</v>
       </c>
       <c r="AQ5" s="6">
-        <f t="shared" ref="AQ5:AQ9" si="6">AP5+AL5</f>
+        <f t="shared" ref="AQ5:AQ10" si="6">AP5+AL5</f>
         <v>48.571428571428569</v>
       </c>
     </row>
@@ -1808,27 +1820,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="3"/>
-        <v>21000</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
-        <f>$C7*3/7</f>
-        <v>9000</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="4"/>
-        <v>13000</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="6"/>
       <c r="I7" s="5" t="s">
         <v>44</v>
       </c>
@@ -1912,27 +1905,8 @@
       <c r="AJ7" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="AL7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>60</v>
-      </c>
-      <c r="AN7" s="1">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP7" s="1">
-        <f>$AN7*3/7</f>
-        <v>17.142857142857142</v>
-      </c>
-      <c r="AQ7" s="6">
-        <f t="shared" si="6"/>
-        <v>37.142857142857139</v>
-      </c>
+      <c r="AO7" s="3"/>
+      <c r="AQ7" s="6"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1946,15 +1920,15 @@
         <v>21000</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1">
-        <f>$C8*2/7</f>
-        <v>6000</v>
+        <f>$C8*3/7</f>
+        <v>9000</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>33</v>
@@ -2025,15 +1999,15 @@
         <v>40</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP8" s="1">
-        <f>$AN8*2/7</f>
-        <v>11.428571428571429</v>
+        <f>$AN8*3/7</f>
+        <v>17.142857142857142</v>
       </c>
       <c r="AQ8" s="6">
         <f t="shared" si="6"/>
-        <v>31.428571428571431</v>
+        <v>37.142857142857139</v>
       </c>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
@@ -2048,98 +2022,92 @@
         <v>21000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1">
-        <f>$C9*1/7</f>
-        <v>3000</v>
+        <f>$C9*2/7</f>
+        <v>6000</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="4"/>
-        <v>7000</v>
-      </c>
-      <c r="I9" s="5">
-        <v>12</v>
+        <v>10000</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="J9" s="25" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="M9" s="17">
-        <v>12760</v>
-      </c>
-      <c r="N9" s="10"/>
+        <v>12997</v>
+      </c>
+      <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="P9" s="9">
-        <v>3566</v>
+        <v>2792</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="R9" s="30">
         <f>M9+P9</f>
-        <v>16326</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>8</v>
-      </c>
+        <v>15789</v>
+      </c>
+      <c r="S9" s="21"/>
       <c r="T9" s="21" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="U9" s="21">
-        <v>8409</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>1</v>
-      </c>
+        <v>24000</v>
+      </c>
+      <c r="V9" s="19"/>
       <c r="W9" s="19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="X9" s="19">
-        <v>3131</v>
+        <v>1774</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA9" s="4">
-        <v>48</v>
-      </c>
-      <c r="AB9" s="22" t="s">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AB9" s="22"/>
       <c r="AC9" s="22" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="AD9" s="22">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="AE9" s="14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AF9" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG9" s="32">
-        <v>1</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="AH9" s="32">
-        <f t="shared" si="1"/>
-        <v>300.84180390000006</v>
+        <f t="shared" ref="AH9" si="7">(1630*AG9+AA9*5)*(1630*AG9+AA9*5)*AF9*1.3035*0.5*0.000066</f>
+        <v>520.25015250551974</v>
       </c>
       <c r="AI9" s="32">
-        <f t="shared" si="2"/>
-        <v>1358.3541346649999</v>
+        <f t="shared" ref="AI9" si="8">(1630*AG9+AD9*5)*(1630*AG9+AD9*5)*AF9*4.1949*0.5*0.000066</f>
+        <v>2675.4966147650812</v>
       </c>
       <c r="AJ9" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AL9" s="1">
         <v>20</v>
@@ -2152,26 +2120,44 @@
         <v>40</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP9" s="1">
-        <f>$AN9*1/7</f>
-        <v>5.7142857142857144</v>
+        <f>$AN9*2/7</f>
+        <v>11.428571428571429</v>
       </c>
       <c r="AQ9" s="6">
         <f t="shared" si="6"/>
-        <v>25.714285714285715</v>
+        <v>31.428571428571431</v>
       </c>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
+      <c r="A10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="3"/>
+        <v>21000</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <f>$C10*1/7</f>
+        <v>3000</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="4"/>
+        <v>7000</v>
       </c>
       <c r="I10" s="5">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="23" t="s">
         <v>17</v>
@@ -2180,206 +2166,208 @@
         <v>73</v>
       </c>
       <c r="M10" s="17">
-        <v>11386</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>1</v>
-      </c>
+        <v>12760</v>
+      </c>
+      <c r="N10" s="10"/>
       <c r="O10" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="9">
-        <v>6922</v>
+        <v>3566</v>
       </c>
       <c r="Q10" s="15" t="s">
         <v>73</v>
       </c>
       <c r="R10" s="30">
-        <f t="shared" ref="R10:R12" si="7">M10+P10</f>
-        <v>18308</v>
-      </c>
-      <c r="S10" s="21"/>
+        <f>M10+P10</f>
+        <v>16326</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>8</v>
+      </c>
       <c r="T10" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U10" s="21">
-        <v>13749</v>
-      </c>
-      <c r="V10" s="19"/>
+        <v>8409</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>1</v>
+      </c>
       <c r="W10" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X10" s="19">
-        <v>1553</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>3131</v>
+      </c>
+      <c r="Y10" s="4"/>
       <c r="Z10" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AA10" s="4">
+        <v>48</v>
+      </c>
+      <c r="AB10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD10" s="22">
+        <v>117</v>
+      </c>
+      <c r="AE10" s="14">
         <v>22</v>
       </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" s="22">
-        <v>99</v>
-      </c>
-      <c r="AE10" s="14">
-        <v>18</v>
-      </c>
       <c r="AF10" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG10" s="32">
-        <v>0.77900000000000003</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="32">
         <f t="shared" si="1"/>
-        <v>491.34848541671977</v>
+        <v>300.84180390000006</v>
       </c>
       <c r="AI10" s="32">
         <f t="shared" si="2"/>
-        <v>2586.8010435498418</v>
+        <v>1358.3541346649999</v>
       </c>
       <c r="AJ10" s="32" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>60</v>
+      </c>
+      <c r="AN10" s="1">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP10" s="1">
+        <f>$AN10*1/7</f>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="AQ10" s="6">
+        <f t="shared" si="6"/>
+        <v>25.714285714285715</v>
       </c>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="5">
+        <v>17</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="17">
+        <v>11386</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="9">
+        <v>6922</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="30">
+        <f t="shared" ref="R11:R13" si="9">M11+P11</f>
+        <v>18308</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U11" s="21">
+        <v>13749</v>
+      </c>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" s="19">
+        <v>1553</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="4">
         <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="5">
-        <v>14</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M11" s="17">
-        <v>10755</v>
-      </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="9">
-        <v>4720</v>
-      </c>
-      <c r="Q11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="30">
-        <f t="shared" si="7"/>
-        <v>15475</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" s="21">
-        <v>20884</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="W11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="X11" s="19">
-        <v>1407</v>
-      </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>44</v>
       </c>
       <c r="AB11" s="22"/>
       <c r="AC11" s="22" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AD11" s="22">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AE11" s="14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AF11" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="32">
-        <v>1</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="AH11" s="32">
         <f t="shared" si="1"/>
-        <v>294.44109750000001</v>
+        <v>491.34848541671977</v>
       </c>
       <c r="AI11" s="32">
         <f t="shared" si="2"/>
-        <v>1333.9347827849999</v>
+        <v>2586.8010435498418</v>
       </c>
       <c r="AJ11" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3000</v>
-      </c>
-      <c r="B12" s="1">
-        <v>17000</v>
-      </c>
-      <c r="C12" s="1">
-        <f>B12-A12</f>
-        <v>14000</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <f>$C12*6/7</f>
-        <v>12000</v>
-      </c>
-      <c r="F12" s="6">
-        <f>E12+A12</f>
-        <v>15000</v>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I12" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="23" t="s">
         <v>13</v>
@@ -2388,91 +2376,76 @@
         <v>74</v>
       </c>
       <c r="M12" s="17">
-        <v>10329</v>
-      </c>
-      <c r="N12" s="9"/>
+        <v>10755</v>
+      </c>
+      <c r="N12" s="10"/>
       <c r="O12" s="9" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P12" s="9">
-        <v>5522</v>
+        <v>4720</v>
       </c>
       <c r="Q12" s="15" t="s">
         <v>74</v>
       </c>
       <c r="R12" s="30">
-        <f t="shared" si="7"/>
-        <v>15851</v>
+        <f t="shared" si="9"/>
+        <v>15475</v>
       </c>
       <c r="S12" s="21" t="s">
         <v>1</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U12" s="21">
-        <v>22058</v>
-      </c>
-      <c r="V12" s="19"/>
+        <v>20884</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="W12" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X12" s="19">
-        <v>2299</v>
+        <v>1407</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AA12" s="4">
-        <v>37</v>
-      </c>
-      <c r="AB12" s="22" t="s">
-        <v>8</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AB12" s="22"/>
       <c r="AC12" s="22" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AD12" s="22">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AE12" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF12" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG12" s="32">
-        <v>0.84299999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="32">
         <f t="shared" si="1"/>
-        <v>418.24170725414223</v>
+        <v>294.44109750000001</v>
       </c>
       <c r="AI12" s="32">
         <f t="shared" si="2"/>
-        <v>1713.450896535403</v>
+        <v>1333.9347827849999</v>
       </c>
       <c r="AJ12" s="32" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ12" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
@@ -2483,98 +2456,118 @@
         <v>17000</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C17" si="8">B13-A13</f>
+        <f>B13-A13</f>
         <v>14000</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
-        <f>$C13*5/7</f>
-        <v>10000</v>
+        <f>$C13*6/7</f>
+        <v>12000</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" ref="F13:F17" si="9">E13+A13</f>
-        <v>13000</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="R13" s="36"/>
-      <c r="S13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG13" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH13" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI13" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ13" s="31"/>
-      <c r="AL13" s="1">
-        <v>70</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>133</v>
-      </c>
-      <c r="AN13" s="1">
-        <f>AM13-AL13</f>
-        <v>63</v>
-      </c>
-      <c r="AO13" s="3" t="s">
+        <f>E13+A13</f>
+        <v>15000</v>
+      </c>
+      <c r="I13" s="5">
+        <v>15</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="17">
+        <v>10329</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="9">
+        <v>5522</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="30">
+        <f t="shared" si="9"/>
+        <v>15851</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="AP13" s="1">
-        <f>$AN13*6/7</f>
-        <v>54</v>
-      </c>
-      <c r="AQ13" s="6">
-        <f>AP13+AL13</f>
-        <v>124</v>
+      <c r="U13" s="21">
+        <v>22058</v>
+      </c>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="19">
+        <v>2299</v>
+      </c>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>37</v>
+      </c>
+      <c r="AB13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="22">
+        <v>77</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AH13" s="32">
+        <f t="shared" si="1"/>
+        <v>418.24170725414223</v>
+      </c>
+      <c r="AI13" s="32">
+        <f t="shared" si="2"/>
+        <v>1713.450896535403</v>
+      </c>
+      <c r="AJ13" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
@@ -2585,103 +2578,78 @@
         <v>17000</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="C14:C18" si="10">B14-A14</f>
         <v>14000</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14" s="1">
-        <f>$C14*4/7</f>
-        <v>8000</v>
+        <f>$C14*5/7</f>
+        <v>10000</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="9"/>
-        <v>11000</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="17">
-        <v>9327</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="9">
-        <v>3329</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="30">
-        <f>M14+P14</f>
-        <v>12656</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="U14" s="21">
-        <v>20741</v>
-      </c>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="X14" s="19">
-        <v>1597</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>59</v>
-      </c>
-      <c r="AB14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC14" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="22">
-        <v>75</v>
-      </c>
-      <c r="AE14" s="14">
-        <v>20</v>
-      </c>
-      <c r="AF14" s="14">
-        <v>4</v>
-      </c>
-      <c r="AG14" s="32">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="AH14" s="32">
-        <f t="shared" si="1"/>
-        <v>479.34088904174223</v>
-      </c>
-      <c r="AI14" s="32">
-        <f t="shared" si="2"/>
-        <v>1694.0251636831629</v>
-      </c>
-      <c r="AJ14" s="32" t="s">
-        <v>90</v>
-      </c>
+        <f t="shared" ref="F14:F18" si="11">E14+A14</f>
+        <v>13000</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG14" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH14" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI14" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" s="31"/>
       <c r="AL14" s="1">
         <v>70</v>
       </c>
@@ -2689,19 +2657,19 @@
         <v>133</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" ref="AN14:AN18" si="10">AM14-AL14</f>
+        <f>AM14-AL14</f>
         <v>63</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" s="1">
-        <f>$AN14*5/7</f>
-        <v>45</v>
+        <f>$AN14*6/7</f>
+        <v>54</v>
       </c>
       <c r="AQ14" s="6">
-        <f t="shared" ref="AQ14:AQ18" si="11">AP14+AL14</f>
-        <v>115</v>
+        <f>AP14+AL14</f>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
@@ -2712,102 +2680,102 @@
         <v>17000</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14000</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
-        <f>$C15*3/7</f>
-        <v>6000</v>
+        <f>$C15*4/7</f>
+        <v>8000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="9"/>
-        <v>9000</v>
+        <f t="shared" si="11"/>
+        <v>11000</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M15" s="17">
-        <v>8879</v>
+        <v>9327</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="9" t="s">
         <v>14</v>
       </c>
       <c r="P15" s="9">
-        <v>3771</v>
+        <v>3329</v>
       </c>
       <c r="Q15" s="15" t="s">
         <v>75</v>
       </c>
       <c r="R15" s="30">
-        <f t="shared" ref="R15:R16" si="12">M15+P15</f>
-        <v>12650</v>
+        <f>M15+P15</f>
+        <v>12656</v>
       </c>
       <c r="S15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="21">
+        <v>20741</v>
+      </c>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="19">
+        <v>1597</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>59</v>
+      </c>
+      <c r="AB15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="U15" s="21">
-        <v>7945</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="X15" s="19">
-        <v>3154</v>
-      </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA15" s="4">
-        <v>39</v>
-      </c>
-      <c r="AB15" s="22" t="s">
-        <v>1</v>
-      </c>
       <c r="AC15" s="22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD15" s="22">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF15" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG15" s="32">
-        <v>1</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="AH15" s="32">
         <f t="shared" si="1"/>
-        <v>286.53699937500005</v>
+        <v>479.34088904174223</v>
       </c>
       <c r="AI15" s="32">
         <f t="shared" si="2"/>
-        <v>1432.9411346249999</v>
+        <v>1694.0251636831629</v>
       </c>
       <c r="AJ15" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL15" s="1">
         <v>70</v>
@@ -2816,19 +2784,19 @@
         <v>133</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AN15:AN19" si="12">AM15-AL15</f>
         <v>63</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP15" s="1">
-        <f>$AN15*4/7</f>
-        <v>36</v>
+        <f>$AN15*5/7</f>
+        <v>45</v>
       </c>
       <c r="AQ15" s="6">
-        <f t="shared" si="11"/>
-        <v>106</v>
+        <f t="shared" ref="AQ15:AQ19" si="13">AP15+AL15</f>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
@@ -2839,25 +2807,25 @@
         <v>17000</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14000</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1">
-        <f>$C16*2/7</f>
-        <v>4000</v>
+        <f>$C16*3/7</f>
+        <v>6000</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="9"/>
-        <v>7000</v>
+        <f t="shared" si="11"/>
+        <v>9000</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16" s="23" t="s">
         <v>28</v>
@@ -2866,55 +2834,55 @@
         <v>75</v>
       </c>
       <c r="M16" s="17">
-        <v>8325</v>
-      </c>
-      <c r="N16" s="9" t="s">
+        <v>8879</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="9">
+        <v>3771</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="30">
+        <f t="shared" ref="R16:R17" si="14">M16+P16</f>
+        <v>12650</v>
+      </c>
+      <c r="S16" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="21">
+        <v>7945</v>
+      </c>
+      <c r="V16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="W16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="X16" s="19">
+        <v>3154</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="P16" s="9">
-        <v>7724</v>
-      </c>
-      <c r="Q16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="R16" s="30">
-        <f t="shared" si="12"/>
-        <v>16049</v>
-      </c>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="21">
-        <v>11754</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="W16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="X16" s="19">
-        <v>1192</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA16" s="4">
-        <v>53</v>
-      </c>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22" t="s">
-        <v>28</v>
-      </c>
       <c r="AD16" s="22">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="AE16" s="14">
         <v>22</v>
@@ -2927,14 +2895,14 @@
       </c>
       <c r="AH16" s="32">
         <f t="shared" si="1"/>
-        <v>308.93947177500007</v>
+        <v>286.53699937500005</v>
       </c>
       <c r="AI16" s="32">
         <f t="shared" si="2"/>
-        <v>1238.472282465</v>
+        <v>1432.9411346249999</v>
       </c>
       <c r="AJ16" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL16" s="1">
         <v>70</v>
@@ -2943,19 +2911,19 @@
         <v>133</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP16" s="1">
-        <f>$AN16*3/7</f>
-        <v>27</v>
+        <f>$AN16*4/7</f>
+        <v>36</v>
       </c>
       <c r="AQ16" s="6">
-        <f t="shared" si="11"/>
-        <v>97</v>
+        <f t="shared" si="13"/>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
@@ -2966,78 +2934,103 @@
         <v>17000</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14000</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1">
-        <f>$C17*1/7</f>
-        <v>2000</v>
+        <f>$C17*2/7</f>
+        <v>4000</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="9"/>
-        <v>5000</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="36"/>
-      <c r="N17" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG17" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH17" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI17" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ17" s="31"/>
+        <f t="shared" si="11"/>
+        <v>7000</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="17">
+        <v>8325</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="9">
+        <v>7724</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R17" s="30">
+        <f t="shared" si="14"/>
+        <v>16049</v>
+      </c>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="21">
+        <v>11754</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="X17" s="19">
+        <v>1192</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>53</v>
+      </c>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD17" s="22">
+        <v>97</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>22</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG17" s="32">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="32">
+        <f t="shared" si="1"/>
+        <v>308.93947177500007</v>
+      </c>
+      <c r="AI17" s="32">
+        <f t="shared" si="2"/>
+        <v>1238.472282465</v>
+      </c>
+      <c r="AJ17" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="AL17" s="1">
         <v>70</v>
       </c>
@@ -3045,108 +3038,101 @@
         <v>133</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP17" s="1">
-        <f>$AN17*2/7</f>
-        <v>18</v>
+        <f>$AN17*3/7</f>
+        <v>27</v>
       </c>
       <c r="AQ17" s="6">
-        <f t="shared" si="11"/>
-        <v>88</v>
+        <f t="shared" si="13"/>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="17">
-        <v>7346</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="9">
-        <v>7993</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="R18" s="30">
-        <f>M18+P18</f>
-        <v>15339</v>
-      </c>
-      <c r="S18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="U18" s="21">
-        <v>5229</v>
-      </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X18" s="19">
-        <v>2075</v>
-      </c>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA18" s="4">
-        <v>35</v>
-      </c>
-      <c r="AB18" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="22">
-        <v>133</v>
-      </c>
-      <c r="AE18" s="14">
-        <v>22</v>
-      </c>
-      <c r="AF18" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG18" s="32">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="32">
-        <f t="shared" si="1"/>
-        <v>280.29114877500007</v>
-      </c>
-      <c r="AI18" s="32">
-        <f t="shared" si="2"/>
-        <v>1458.246449385</v>
-      </c>
-      <c r="AJ18" s="32" t="s">
-        <v>91</v>
-      </c>
+      <c r="A18" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="10"/>
+        <v>14000</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <f>$C18*1/7</f>
+        <v>2000</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="11"/>
+        <v>5000</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG18" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH18" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI18" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" s="31"/>
       <c r="AL18" s="1">
         <v>70</v>
       </c>
@@ -3154,295 +3140,296 @@
         <v>133</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP18" s="1">
-        <f>$AN18*1/7</f>
-        <v>9</v>
+        <f>$AN18*2/7</f>
+        <v>18</v>
       </c>
       <c r="AQ18" s="6">
-        <f t="shared" si="11"/>
-        <v>79</v>
+        <f t="shared" si="13"/>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" s="17">
-        <v>6692</v>
-      </c>
-      <c r="N19" s="10"/>
+        <v>7346</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="O19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="9">
+        <v>7993</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R19" s="30">
+        <f>M19+P19</f>
+        <v>15339</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="21">
+        <v>5229</v>
+      </c>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="P19" s="9">
-        <v>4156</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="R19" s="30">
-        <f t="shared" ref="R19:R21" si="13">M19+P19</f>
-        <v>10848</v>
-      </c>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="21">
-        <v>16450</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="W19" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="X19" s="19">
-        <v>1263</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>2075</v>
+      </c>
+      <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA19" s="4">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AB19" s="22" t="s">
         <v>1</v>
       </c>
       <c r="AC19" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD19" s="22">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="AE19" s="14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AF19" s="14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG19" s="32">
-        <v>0.77900000000000003</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="32">
         <f t="shared" si="1"/>
-        <v>494.91602752781978</v>
+        <v>280.29114877500007</v>
       </c>
       <c r="AI19" s="32">
         <f t="shared" si="2"/>
-        <v>2841.9881711780213</v>
+        <v>1458.246449385</v>
       </c>
       <c r="AJ19" s="32" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>70</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>133</v>
+      </c>
+      <c r="AN19" s="1">
+        <f t="shared" si="12"/>
+        <v>63</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP19" s="1">
+        <f>$AN19*1/7</f>
+        <v>9</v>
+      </c>
+      <c r="AQ19" s="6">
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="I20" s="5" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="K20" s="23" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="M20" s="17">
-        <v>5987</v>
+        <v>6692</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="P20" s="9">
-        <v>3156</v>
+        <v>4156</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="R20" s="30">
-        <f t="shared" si="13"/>
-        <v>9143</v>
+        <f t="shared" ref="R20:R22" si="15">M20+P20</f>
+        <v>10848</v>
       </c>
       <c r="S20" s="21"/>
       <c r="T20" s="21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U20" s="21">
-        <v>14500</v>
-      </c>
-      <c r="V20" s="19"/>
+        <v>16450</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="W20" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X20" s="19">
-        <v>2444</v>
-      </c>
-      <c r="Y20" s="4"/>
+        <v>1263</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="Z20" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AA20" s="4">
-        <v>28</v>
-      </c>
-      <c r="AB20" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="AB20" s="22" t="s">
+        <v>1</v>
+      </c>
       <c r="AC20" s="22" t="s">
         <v>11</v>
       </c>
       <c r="AD20" s="22">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AE20" s="14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF20" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG20" s="32">
-        <v>0.84299999999999997</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="AH20" s="32">
-        <f t="shared" ref="AH20" si="14">(1630*AG20+AA20*5)*(1630*AG20+AA20*5)*AF20*1.3035*0.5*0.000066</f>
-        <v>394.44671988194222</v>
+        <f t="shared" si="1"/>
+        <v>494.91602752781978</v>
       </c>
       <c r="AI20" s="32">
-        <f t="shared" ref="AI20" si="15">(1630*AG20+AD20*5)*(1630*AG20+AD20*5)*AF20*4.1949*0.5*0.000066</f>
-        <v>2190.8084714969227</v>
+        <f t="shared" si="2"/>
+        <v>2841.9881711780213</v>
       </c>
       <c r="AJ20" s="32" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8000</v>
-      </c>
-      <c r="C21" s="1">
-        <f>B21-A21</f>
-        <v>7000</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
-        <f>$C21*6/7</f>
-        <v>6000</v>
-      </c>
-      <c r="F21" s="6">
-        <f>E21+A21</f>
-        <v>7000</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="I21" s="5" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="K21" s="23" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="M21" s="17">
-        <v>5375</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>5987</v>
+      </c>
+      <c r="N21" s="10"/>
       <c r="O21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="9">
+        <v>3156</v>
+      </c>
+      <c r="Q21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="9">
-        <v>2456</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="R21" s="30">
-        <f t="shared" si="13"/>
-        <v>7831</v>
+        <f t="shared" si="15"/>
+        <v>9143</v>
       </c>
       <c r="S21" s="21"/>
       <c r="T21" s="21" t="s">
         <v>28</v>
       </c>
       <c r="U21" s="21">
-        <v>12934</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>1</v>
-      </c>
+        <v>14500</v>
+      </c>
+      <c r="V21" s="19"/>
       <c r="W21" s="19" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="X21" s="19">
-        <v>3690</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>2444</v>
+      </c>
+      <c r="Y21" s="4"/>
       <c r="Z21" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AA21" s="4">
         <v>28</v>
       </c>
-      <c r="AB21" s="22" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB21" s="22"/>
       <c r="AC21" s="22" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AD21" s="22">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AE21" s="14">
         <v>20</v>
@@ -3454,18 +3441,15 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="AH21" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AH21" si="16">(1630*AG21+AA21*5)*(1630*AG21+AA21*5)*AF21*1.3035*0.5*0.000066</f>
         <v>394.44671988194222</v>
       </c>
       <c r="AI21" s="32">
-        <f t="shared" si="2"/>
-        <v>2092.8026486118429</v>
+        <f t="shared" ref="AI21" si="17">(1630*AG21+AD21*5)*(1630*AG21+AD21*5)*AF21*4.1949*0.5*0.000066</f>
+        <v>2190.8084714969227</v>
       </c>
       <c r="AJ21" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -3476,95 +3460,107 @@
         <v>8000</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ref="C22:C26" si="16">B22-A22</f>
+        <f>B22-A22</f>
         <v>7000</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1">
+        <f>$C22*6/7</f>
+        <v>6000</v>
+      </c>
+      <c r="F22" s="6">
+        <f>E22+A22</f>
+        <v>7000</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="1">
-        <f>$C22*5/7</f>
-        <v>5000</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" ref="F22:F26" si="17">E22+A22</f>
-        <v>6000</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF22" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG22" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH22" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI22" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ22" s="31"/>
+      <c r="L22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="17">
+        <v>5375</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="9">
+        <v>2456</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" s="30">
+        <f t="shared" si="15"/>
+        <v>7831</v>
+      </c>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="U22" s="21">
+        <v>12934</v>
+      </c>
+      <c r="V22" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="X22" s="19">
+        <v>3690</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>28</v>
+      </c>
+      <c r="AB22" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD22" s="22">
+        <v>114</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>20</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AH22" s="32">
+        <f t="shared" si="1"/>
+        <v>394.44671988194222</v>
+      </c>
+      <c r="AI22" s="32">
+        <f t="shared" si="2"/>
+        <v>2092.8026486118429</v>
+      </c>
+      <c r="AJ22" s="32" t="s">
+        <v>88</v>
+      </c>
       <c r="AL22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ22" s="2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
@@ -3575,123 +3571,95 @@
         <v>8000</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="C23:C27" si="18">B23-A23</f>
         <v>7000</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E23" s="1">
-        <f>$C23*4/7</f>
-        <v>4000</v>
+        <f>$C23*5/7</f>
+        <v>5000</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="17"/>
-        <v>5000</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" s="17">
-        <v>4793</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="9">
-        <v>6522</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="R23" s="30">
-        <f>M23+P23</f>
-        <v>11315</v>
-      </c>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" s="21">
-        <v>14859</v>
-      </c>
-      <c r="V23" s="19"/>
-      <c r="W23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="19">
-        <v>2237</v>
-      </c>
-      <c r="Y23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>54</v>
-      </c>
-      <c r="AB23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC23" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD23" s="22">
-        <v>85</v>
-      </c>
-      <c r="AE23" s="14">
+        <f t="shared" ref="F23:F27" si="19">E23+A23</f>
+        <v>6000</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="R23" s="36"/>
+      <c r="S23" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG23" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH23" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI23" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ23" s="31"/>
+      <c r="AL23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AF23" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG23" s="32">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="32">
-        <f t="shared" si="1"/>
-        <v>310.57191</v>
-      </c>
-      <c r="AI23" s="32">
-        <f t="shared" si="2"/>
-        <v>1169.2010597849999</v>
-      </c>
-      <c r="AJ23" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL23" s="1">
-        <v>1092</v>
-      </c>
-      <c r="AM23" s="1">
-        <v>2842</v>
-      </c>
-      <c r="AN23" s="1">
-        <f>AM23-AL23</f>
-        <v>1750</v>
-      </c>
-      <c r="AO23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP23" s="1">
-        <f>$AN23*6/7</f>
-        <v>1500</v>
-      </c>
-      <c r="AQ23" s="6">
-        <f>AP23+AL23</f>
-        <v>2592</v>
+      <c r="AO23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -3702,25 +3670,25 @@
         <v>8000</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1">
-        <f>$C24*3/7</f>
-        <v>3000</v>
+        <f>$C24*4/7</f>
+        <v>4000</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="17"/>
-        <v>4000</v>
+        <f t="shared" si="19"/>
+        <v>5000</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24" s="23" t="s">
         <v>10</v>
@@ -3729,73 +3697,75 @@
         <v>77</v>
       </c>
       <c r="M24" s="17">
-        <v>4327</v>
-      </c>
-      <c r="N24" s="10"/>
+        <v>4793</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>1</v>
+      </c>
       <c r="O24" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P24" s="9">
-        <v>3149</v>
+        <v>6522</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R24" s="30">
-        <f t="shared" ref="R24:R28" si="18">M24+P24</f>
-        <v>7476</v>
+        <f>M24+P24</f>
+        <v>11315</v>
       </c>
       <c r="S24" s="21"/>
       <c r="T24" s="21" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="U24" s="21">
-        <v>10721</v>
-      </c>
-      <c r="V24" s="19" t="s">
-        <v>8</v>
-      </c>
+        <v>14859</v>
+      </c>
+      <c r="V24" s="19"/>
       <c r="W24" s="19" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="X24" s="19">
-        <v>888</v>
+        <v>2237</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA24" s="4">
-        <v>60</v>
-      </c>
-      <c r="AB24" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="AB24" s="22" t="s">
+        <v>8</v>
+      </c>
       <c r="AC24" s="22" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AD24" s="22">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AE24" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF24" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG24" s="32">
-        <v>0.84299999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="32">
         <f t="shared" si="1"/>
-        <v>482.21706022754222</v>
+        <v>310.57191</v>
       </c>
       <c r="AI24" s="32">
         <f t="shared" si="2"/>
-        <v>2157.8906868085628</v>
+        <v>1169.2010597849999</v>
       </c>
       <c r="AJ24" s="32" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AL24" s="1">
         <v>1092</v>
@@ -3804,19 +3774,19 @@
         <v>2842</v>
       </c>
       <c r="AN24" s="1">
-        <f t="shared" ref="AN24:AN28" si="19">AM24-AL24</f>
+        <f>AM24-AL24</f>
         <v>1750</v>
       </c>
       <c r="AO24" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP24" s="1">
-        <f>$AN24*5/7</f>
-        <v>1250</v>
+        <f>$AN24*6/7</f>
+        <v>1500</v>
       </c>
       <c r="AQ24" s="6">
-        <f t="shared" ref="AQ24:AQ28" si="20">AP24+AL24</f>
-        <v>2342</v>
+        <f>AP24+AL24</f>
+        <v>2592</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -3827,25 +3797,25 @@
         <v>8000</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1">
-        <f>$C25*2/7</f>
-        <v>2000</v>
+        <f>$C25*3/7</f>
+        <v>3000</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="17"/>
-        <v>3000</v>
+        <f t="shared" si="19"/>
+        <v>4000</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>10</v>
@@ -3854,77 +3824,73 @@
         <v>77</v>
       </c>
       <c r="M25" s="17">
-        <v>3971</v>
-      </c>
-      <c r="N25" s="9" t="s">
+        <v>4327</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="9">
+        <v>3149</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="30">
+        <f t="shared" ref="R25:R29" si="20">M25+P25</f>
+        <v>7476</v>
+      </c>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="21">
+        <v>10721</v>
+      </c>
+      <c r="V25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="9" t="s">
+      <c r="W25" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="9">
-        <v>1379</v>
-      </c>
-      <c r="Q25" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="R25" s="30">
-        <f t="shared" si="18"/>
-        <v>5350</v>
-      </c>
-      <c r="S25" s="21" t="s">
+      <c r="X25" s="19">
+        <v>888</v>
+      </c>
+      <c r="Y25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T25" s="21" t="s">
+      <c r="Z25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="U25" s="21">
-        <v>23740</v>
-      </c>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="X25" s="19">
-        <v>2773</v>
-      </c>
-      <c r="Y25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z25" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="AA25" s="4">
-        <v>27</v>
-      </c>
-      <c r="AB25" s="22" t="s">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AB25" s="22"/>
       <c r="AC25" s="22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD25" s="22">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AE25" s="14">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF25" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG25" s="32">
-        <v>1</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="AH25" s="32">
         <f t="shared" si="1"/>
-        <v>268.00592197500004</v>
+        <v>482.21706022754222</v>
       </c>
       <c r="AI25" s="32">
         <f t="shared" si="2"/>
-        <v>1420.371536265</v>
+        <v>2157.8906868085628</v>
       </c>
       <c r="AJ25" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AL25" s="1">
         <v>1092</v>
@@ -3933,19 +3899,19 @@
         <v>2842</v>
       </c>
       <c r="AN25" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AN25:AN29" si="21">AM25-AL25</f>
         <v>1750</v>
       </c>
       <c r="AO25" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP25" s="1">
-        <f>$AN25*4/7</f>
-        <v>1000</v>
+        <f>$AN25*5/7</f>
+        <v>1250</v>
       </c>
       <c r="AQ25" s="6">
-        <f t="shared" si="20"/>
-        <v>2092</v>
+        <f t="shared" ref="AQ25:AQ29" si="22">AP25+AL25</f>
+        <v>2342</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
@@ -3956,48 +3922,105 @@
         <v>8000</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7000</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1">
-        <f>$C26*1/7</f>
-        <v>1000</v>
+        <f>$C26*2/7</f>
+        <v>2000</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="17"/>
-        <v>2000</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="22"/>
-      <c r="AC26" s="22"/>
-      <c r="AD26" s="22"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="33"/>
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="17">
+        <v>3971</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P26" s="9">
+        <v>1379</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R26" s="30">
+        <f t="shared" si="20"/>
+        <v>5350</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="21">
+        <v>23740</v>
+      </c>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X26" s="19">
+        <v>2773</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>27</v>
+      </c>
+      <c r="AB26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="22">
+        <v>127</v>
+      </c>
+      <c r="AE26" s="14">
+        <v>22</v>
+      </c>
+      <c r="AF26" s="14">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="32">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="32">
+        <f t="shared" si="1"/>
+        <v>268.00592197500004</v>
+      </c>
+      <c r="AI26" s="32">
+        <f t="shared" si="2"/>
+        <v>1420.371536265</v>
+      </c>
+      <c r="AJ26" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="AL26" s="1">
         <v>1092</v>
       </c>
@@ -4005,102 +4028,71 @@
         <v>2842</v>
       </c>
       <c r="AN26" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1750</v>
       </c>
       <c r="AO26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP26" s="1">
-        <f>$AN26*3/7</f>
-        <v>750</v>
+        <f>$AN26*4/7</f>
+        <v>1000</v>
       </c>
       <c r="AQ26" s="6">
-        <f t="shared" si="20"/>
-        <v>1842</v>
+        <f t="shared" si="22"/>
+        <v>2092</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="K27" s="34" t="s">
-        <v>108</v>
-      </c>
+      <c r="A27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8000</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="18"/>
+        <v>7000</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1">
+        <f>$C27*1/7</f>
+        <v>1000</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="19"/>
+        <v>2000</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="17">
-        <v>8100</v>
-      </c>
-      <c r="N27" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P27" s="10">
-        <v>1975</v>
-      </c>
-      <c r="Q27" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="30">
-        <f t="shared" si="18"/>
-        <v>10075</v>
-      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="30"/>
       <c r="S27" s="21"/>
-      <c r="T27" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="U27" s="21">
-        <v>15052</v>
-      </c>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="X27" s="19">
-        <v>2174</v>
-      </c>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA27" s="4">
-        <v>45</v>
-      </c>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
       <c r="AB27" s="22"/>
-      <c r="AC27" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD27" s="22">
-        <v>95</v>
-      </c>
-      <c r="AE27" s="14">
-        <v>18</v>
-      </c>
-      <c r="AF27" s="14">
-        <v>6</v>
-      </c>
-      <c r="AG27" s="32">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="AH27" s="32">
-        <f t="shared" ref="AH27:AH28" si="21">(1630*AG27+AA27*5)*(1630*AG27+AA27*5)*AF27*1.3035*0.5*0.000066</f>
-        <v>576.66683042201976</v>
-      </c>
-      <c r="AI27" s="32">
-        <f t="shared" ref="AI27:AI28" si="22">(1630*AG27+AD27*5)*(1630*AG27+AD27*5)*AF27*4.1949*0.5*0.000066</f>
-        <v>2528.5012529396813</v>
-      </c>
-      <c r="AJ27" s="32" t="s">
-        <v>86</v>
-      </c>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="33"/>
       <c r="AL27" s="1">
         <v>1092</v>
       </c>
@@ -4108,165 +4100,242 @@
         <v>2842</v>
       </c>
       <c r="AN27" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1750</v>
       </c>
       <c r="AO27" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP27" s="1">
-        <f>$AN27*2/7</f>
-        <v>500</v>
+        <f>$AN27*3/7</f>
+        <v>750</v>
       </c>
       <c r="AQ27" s="6">
-        <f t="shared" si="20"/>
-        <v>1592</v>
+        <f t="shared" si="22"/>
+        <v>1842</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="17">
-        <v>4500</v>
-      </c>
-      <c r="N28" s="10"/>
+        <v>8100</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="O28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="10">
+        <v>1975</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="30">
+        <f t="shared" si="20"/>
+        <v>10075</v>
+      </c>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="P28" s="10">
-        <v>5224</v>
-      </c>
-      <c r="Q28" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="R28" s="30">
-        <f t="shared" si="18"/>
-        <v>9724</v>
-      </c>
-      <c r="S28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="T28" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="U28" s="21">
-        <v>8856</v>
-      </c>
-      <c r="V28" s="19" t="s">
-        <v>1</v>
-      </c>
+        <v>15052</v>
+      </c>
+      <c r="V28" s="19"/>
       <c r="W28" s="19" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="X28" s="19">
-        <v>2990</v>
+        <v>2174</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA28" s="4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AB28" s="22"/>
       <c r="AC28" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AD28" s="22">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AE28" s="14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AF28" s="14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG28" s="32">
-        <v>0.84299999999999997</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="AH28" s="32">
+        <f t="shared" ref="AH28:AH29" si="23">(1630*AG28+AA28*5)*(1630*AG28+AA28*5)*AF28*1.3035*0.5*0.000066</f>
+        <v>576.66683042201976</v>
+      </c>
+      <c r="AI28" s="32">
+        <f t="shared" ref="AI28:AI29" si="24">(1630*AG28+AD28*5)*(1630*AG28+AD28*5)*AF28*4.1949*0.5*0.000066</f>
+        <v>2528.5012529396813</v>
+      </c>
+      <c r="AJ28" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>1092</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>2842</v>
+      </c>
+      <c r="AN28" s="1">
         <f t="shared" si="21"/>
-        <v>410.23261689674223</v>
-      </c>
-      <c r="AI28" s="32">
+        <v>1750</v>
+      </c>
+      <c r="AO28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP28" s="1">
+        <f>$AN28*2/7</f>
+        <v>500</v>
+      </c>
+      <c r="AQ28" s="6">
         <f t="shared" si="22"/>
-        <v>1965.6166969384028</v>
-      </c>
-      <c r="AJ28" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>1080</v>
-      </c>
-      <c r="AM28" s="1">
-        <v>2830</v>
-      </c>
-      <c r="AN28" s="1">
-        <f t="shared" si="19"/>
-        <v>1750</v>
-      </c>
-      <c r="AO28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP28" s="1">
-        <f>$AN28*1/7</f>
-        <v>250</v>
-      </c>
-      <c r="AQ28" s="6">
-        <f t="shared" si="20"/>
-        <v>1330</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>3000</v>
-      </c>
-      <c r="B29" s="1">
-        <v>24000</v>
-      </c>
-      <c r="C29" s="1">
-        <f>B29-A29</f>
-        <v>21000</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="1">
-        <f>$C29*6/7</f>
-        <v>18000</v>
-      </c>
-      <c r="F29" s="6">
-        <f>E29+A29</f>
-        <v>21000</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>56</v>
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="17">
+        <v>4500</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="10">
+        <v>5224</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R29" s="30">
+        <f t="shared" si="20"/>
+        <v>9724</v>
+      </c>
+      <c r="S29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="21">
+        <v>8856</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W29" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="X29" s="19">
+        <v>2990</v>
+      </c>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>34</v>
+      </c>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD29" s="22">
+        <v>102</v>
+      </c>
+      <c r="AE29" s="14">
+        <v>20</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>4</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AH29" s="32">
+        <f t="shared" si="23"/>
+        <v>410.23261689674223</v>
+      </c>
+      <c r="AI29" s="32">
+        <f t="shared" si="24"/>
+        <v>1965.6166969384028</v>
+      </c>
+      <c r="AJ29" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>1080</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>2830</v>
+      </c>
+      <c r="AN29" s="1">
+        <f t="shared" si="21"/>
+        <v>1750</v>
+      </c>
+      <c r="AO29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP29" s="1">
+        <f>$AN29*1/7</f>
+        <v>250</v>
+      </c>
+      <c r="AQ29" s="6">
+        <f t="shared" si="22"/>
+        <v>1330</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -4277,22 +4346,22 @@
         <v>24000</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:C34" si="23">B30-A30</f>
+        <f>B30-A30</f>
         <v>21000</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
-        <f>$C30*5/7</f>
-        <v>15000</v>
+        <f>$C30*6/7</f>
+        <v>18000</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" ref="F30:F34" si="24">E30+A30</f>
-        <v>18000</v>
+        <f>E30+A30</f>
+        <v>21000</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -4303,22 +4372,22 @@
         <v>24000</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="C31:C35" si="25">B31-A31</f>
         <v>21000</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1">
-        <f>$C31*4/7</f>
-        <v>12000</v>
+        <f>$C31*5/7</f>
+        <v>15000</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="24"/>
-        <v>15000</v>
+        <f t="shared" ref="F31:F35" si="26">E31+A31</f>
+        <v>18000</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -4329,22 +4398,22 @@
         <v>24000</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>21000</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1">
-        <f>$C32*3/7</f>
-        <v>9000</v>
+        <f>$C32*4/7</f>
+        <v>12000</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="24"/>
-        <v>12000</v>
+        <f t="shared" si="26"/>
+        <v>15000</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4355,19 +4424,22 @@
         <v>24000</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>21000</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1">
-        <f>$C33*2/7</f>
-        <v>6000</v>
+        <f>$C33*3/7</f>
+        <v>9000</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="24"/>
-        <v>9000</v>
+        <f t="shared" si="26"/>
+        <v>12000</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4378,79 +4450,76 @@
         <v>24000</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>21000</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1">
-        <f>$C34*1/7</f>
-        <v>3000</v>
+        <f>$C34*2/7</f>
+        <v>6000</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="24"/>
-        <v>6000</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>58</v>
+        <f t="shared" si="26"/>
+        <v>9000</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
+      <c r="A35" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B35" s="1">
+        <v>24000</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="25"/>
+        <v>21000</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1">
+        <f>$C35*1/7</f>
+        <v>3000</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="26"/>
+        <v>6000</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>500</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3700</v>
-      </c>
-      <c r="C37" s="1">
-        <f>B37-A37</f>
-        <v>3200</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="1">
-        <f>$C37*6/7</f>
-        <v>2742.8571428571427</v>
-      </c>
-      <c r="F37" s="6">
-        <f>E37+A37</f>
-        <v>3242.8571428571427</v>
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4461,19 +4530,22 @@
         <v>3700</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" ref="C38:C42" si="25">B38-A38</f>
+        <f>B38-A38</f>
         <v>3200</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E38" s="1">
-        <f>$C38*5/7</f>
-        <v>2285.7142857142858</v>
+        <f>$C38*6/7</f>
+        <v>2742.8571428571427</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" ref="F38:F42" si="26">E38+A38</f>
-        <v>2785.7142857142858</v>
+        <f>E38+A38</f>
+        <v>3242.8571428571427</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4484,19 +4556,19 @@
         <v>3700</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="C39:C43" si="27">B39-A39</f>
         <v>3200</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E39" s="1">
-        <f>$C39*4/7</f>
-        <v>1828.5714285714287</v>
+        <f>$C39*5/7</f>
+        <v>2285.7142857142858</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="26"/>
-        <v>2328.5714285714284</v>
+        <f t="shared" ref="F39:F43" si="28">E39+A39</f>
+        <v>2785.7142857142858</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4507,22 +4579,19 @@
         <v>3700</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3200</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1">
-        <f>$C40*3/7</f>
-        <v>1371.4285714285713</v>
+        <f>$C40*4/7</f>
+        <v>1828.5714285714287</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="26"/>
-        <v>1871.4285714285713</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>102</v>
+        <f t="shared" si="28"/>
+        <v>2328.5714285714284</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4533,22 +4602,22 @@
         <v>3700</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3200</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1">
-        <f>$C41*2/7</f>
-        <v>914.28571428571433</v>
+        <f>$C41*3/7</f>
+        <v>1371.4285714285713</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="26"/>
-        <v>1414.2857142857142</v>
+        <f t="shared" si="28"/>
+        <v>1871.4285714285713</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4559,43 +4628,72 @@
         <v>3700</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3200</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E42" s="1">
-        <f>$C42*1/7</f>
-        <v>457.14285714285717</v>
+        <f>$C42*2/7</f>
+        <v>914.28571428571433</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="26"/>
-        <v>957.14285714285711</v>
+        <f t="shared" si="28"/>
+        <v>1414.2857142857142</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>500</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3700</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="27"/>
+        <v>3200</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1">
+        <f>$C43*1/7</f>
+        <v>457.14285714285717</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="28"/>
+        <v>957.14285714285711</v>
+      </c>
       <c r="I43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
         <v>104</v>
       </c>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:AD14"/>
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="Y8:AA8"/>
@@ -4607,18 +4705,18 @@
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L23:M23"/>
     <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q23:R23"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="N23:P23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
